--- a/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58404990-E4C4-45C2-BDB4-C6DE003A7B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{884A5FFE-A47B-4192-80DF-9912E82B24AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{674E0836-843D-412E-8004-25924D230BAB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39E267CD-4F76-44A7-9ACB-FA5D0175D9DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>86,26%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>10,81%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1666 +254,1702 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>11,29%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>70,07%</t>
   </si>
   <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>46,86%</t>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>53,14%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF9D2EB-92AD-495E-B672-FED09A39A0F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230024C4-6522-44D0-A425-713DEC5EF675}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3257,10 +3293,10 @@
         <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3311,13 @@
         <v>234406</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3290,13 +3326,13 @@
         <v>209580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>432</v>
@@ -3305,13 +3341,13 @@
         <v>443985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3403,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3379,13 +3415,13 @@
         <v>86649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -3394,13 +3430,13 @@
         <v>133292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -3409,13 +3445,13 @@
         <v>219941</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3466,13 @@
         <v>528378</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>492</v>
@@ -3445,13 +3481,13 @@
         <v>504927</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1002</v>
@@ -3460,13 +3496,13 @@
         <v>1033305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3558,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3534,13 +3570,13 @@
         <v>131438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -3549,13 +3585,13 @@
         <v>212897</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -3564,13 +3600,13 @@
         <v>344335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3621,13 @@
         <v>611339</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>545</v>
@@ -3600,13 +3636,13 @@
         <v>570614</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -3615,13 +3651,13 @@
         <v>1181953</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3725,13 @@
         <v>455794</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>783</v>
@@ -3704,13 +3740,13 @@
         <v>806617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1247</v>
@@ -3719,13 +3755,13 @@
         <v>1262411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,16 +3773,16 @@
         <v>2749</v>
       </c>
       <c r="D29" s="7">
-        <v>2819731</v>
+        <v>2819732</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2514</v>
@@ -3755,28 +3791,28 @@
         <v>2572581</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5263</v>
       </c>
       <c r="N29" s="7">
-        <v>5392311</v>
+        <v>5392312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3824,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3818,7 +3854,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3868,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6387-31DE-434F-9786-661333D8808A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5226F-91C2-4898-958B-138005A017AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3909,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +4014,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +4059,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4104,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4153,13 @@
         <v>106042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -4132,13 +4168,13 @@
         <v>181443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>262</v>
@@ -4147,13 +4183,13 @@
         <v>287485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4204,13 @@
         <v>399485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4183,13 +4219,13 @@
         <v>341288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -4198,13 +4234,13 @@
         <v>740773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4308,13 @@
         <v>71885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4287,13 +4323,13 @@
         <v>110030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4302,13 +4338,13 @@
         <v>181916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4359,13 @@
         <v>251231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>214</v>
@@ -4338,13 +4374,13 @@
         <v>230990</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -4353,13 +4389,13 @@
         <v>482220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4463,13 @@
         <v>122570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
@@ -4442,13 +4478,13 @@
         <v>230839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -4457,13 +4493,13 @@
         <v>353409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4514,13 @@
         <v>543607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
@@ -4493,13 +4529,13 @@
         <v>441117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>922</v>
@@ -4508,13 +4544,13 @@
         <v>984724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4618,13 @@
         <v>35900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -4597,13 +4633,13 @@
         <v>97495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4612,13 +4648,13 @@
         <v>133395</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4669,13 @@
         <v>176718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4648,13 +4684,13 @@
         <v>122096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -4663,13 +4699,13 @@
         <v>298814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4773,13 @@
         <v>53002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4752,13 +4788,13 @@
         <v>105811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4767,13 +4803,13 @@
         <v>158813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4824,13 @@
         <v>220979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -4803,13 +4839,13 @@
         <v>173329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -4818,13 +4854,13 @@
         <v>394308</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4916,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4892,13 +4928,13 @@
         <v>111374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -4907,13 +4943,13 @@
         <v>224307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4922,13 +4958,13 @@
         <v>335681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4979,13 @@
         <v>551414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -4958,13 +4994,13 @@
         <v>469546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -4973,13 +5009,13 @@
         <v>1020960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5071,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5047,13 +5083,13 @@
         <v>110609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -5062,13 +5098,13 @@
         <v>239046</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>319</v>
@@ -5077,13 +5113,13 @@
         <v>349654</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5134,13 @@
         <v>666363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>537</v>
@@ -5113,13 +5149,13 @@
         <v>583657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1152</v>
@@ -5128,13 +5164,13 @@
         <v>1250021</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5238,13 @@
         <v>611383</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1099</v>
@@ -5217,13 +5253,13 @@
         <v>1188971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>1667</v>
@@ -5232,13 +5268,13 @@
         <v>1800354</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5289,13 @@
         <v>2809796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>2192</v>
@@ -5268,13 +5304,13 @@
         <v>2362023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>4827</v>
@@ -5283,13 +5319,13 @@
         <v>5171820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5381,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EC2A87-0A2A-45B7-962F-CBCD5C268FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EE57F0-DB28-4A80-A53D-F1D01C088C74}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5422,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5529,13 @@
         <v>63251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -5508,13 +5544,13 @@
         <v>96556</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>151</v>
@@ -5523,13 +5559,13 @@
         <v>159808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5580,13 @@
         <v>230510</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5559,13 +5595,13 @@
         <v>192147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>392</v>
@@ -5574,13 +5610,13 @@
         <v>422656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5684,13 @@
         <v>85931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -5663,13 +5699,13 @@
         <v>156607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5678,13 +5714,13 @@
         <v>242538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5735,13 @@
         <v>416644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -5714,13 +5750,13 @@
         <v>366477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -5729,13 +5765,13 @@
         <v>783121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5839,13 @@
         <v>62523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5818,13 +5854,13 @@
         <v>111047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -5833,13 +5869,13 @@
         <v>173570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5890,13 @@
         <v>256042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5869,13 +5905,13 @@
         <v>225262</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>494</v>
@@ -5884,13 +5920,13 @@
         <v>481304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5994,13 @@
         <v>104830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -5973,13 +6009,13 @@
         <v>177603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -5988,13 +6024,13 @@
         <v>282434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6045,13 @@
         <v>265134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -6024,13 +6060,13 @@
         <v>209680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -6039,13 +6075,13 @@
         <v>474813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6149,13 @@
         <v>29331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -6128,13 +6164,13 @@
         <v>64912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -6143,13 +6179,13 @@
         <v>94243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6200,13 @@
         <v>181890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -6179,13 +6215,13 @@
         <v>153675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -6194,13 +6230,13 @@
         <v>335565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6304,13 @@
         <v>39734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -6283,13 +6319,13 @@
         <v>69383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -6298,13 +6334,13 @@
         <v>109117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6355,13 @@
         <v>223389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -6334,13 +6370,13 @@
         <v>203732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>421</v>
@@ -6349,13 +6385,13 @@
         <v>427121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6447,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6423,13 +6459,13 @@
         <v>98385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -6438,13 +6474,13 @@
         <v>152057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>227</v>
@@ -6453,13 +6489,13 @@
         <v>250442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6510,13 @@
         <v>558173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>508</v>
@@ -6489,13 +6525,13 @@
         <v>539237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>999</v>
@@ -6504,13 +6540,13 @@
         <v>1097410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6602,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6578,13 +6614,13 @@
         <v>156460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -6593,13 +6629,13 @@
         <v>274190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>394</v>
@@ -6608,13 +6644,13 @@
         <v>430650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6665,13 @@
         <v>622123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>511</v>
@@ -6644,13 +6680,13 @@
         <v>551977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -6659,13 +6695,13 @@
         <v>1174100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6769,13 @@
         <v>640445</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>1013</v>
@@ -6748,13 +6784,13 @@
         <v>1102356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>1625</v>
@@ -6763,13 +6799,13 @@
         <v>1742802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6820,13 @@
         <v>2753905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>2325</v>
@@ -6799,13 +6835,13 @@
         <v>2442186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>4944</v>
@@ -6814,13 +6850,13 @@
         <v>5196090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6912,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6905DF35-0965-42AD-ABFA-BD680BF66ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2916A73D-7177-47FB-8345-559467923ABA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +7060,13 @@
         <v>77279</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>240</v>
@@ -7039,13 +7075,13 @@
         <v>120644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>343</v>
@@ -7054,13 +7090,13 @@
         <v>197922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7111,13 @@
         <v>183019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>298</v>
@@ -7090,13 +7126,13 @@
         <v>150759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>526</v>
@@ -7105,13 +7141,13 @@
         <v>333778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7215,13 @@
         <v>123811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
@@ -7194,13 +7230,13 @@
         <v>226557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>412</v>
@@ -7209,13 +7245,13 @@
         <v>350367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7266,13 @@
         <v>395486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -7245,13 +7281,13 @@
         <v>327284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -7260,13 +7296,13 @@
         <v>722771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7370,13 @@
         <v>93537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -7349,13 +7385,13 @@
         <v>157931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
@@ -7364,13 +7400,13 @@
         <v>251468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7421,13 @@
         <v>228703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -7400,13 +7436,13 @@
         <v>215353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -7415,13 +7451,13 @@
         <v>444056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7525,13 @@
         <v>99329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -7504,13 +7540,13 @@
         <v>180372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -7519,13 +7555,13 @@
         <v>279701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7576,13 @@
         <v>222911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -7555,13 +7591,13 @@
         <v>248184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
         <v>497</v>
@@ -7570,13 +7606,13 @@
         <v>471095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7680,13 @@
         <v>45431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
@@ -7659,13 +7695,13 @@
         <v>90593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -7674,13 +7710,13 @@
         <v>136024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7731,13 @@
         <v>151317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -7710,13 +7746,13 @@
         <v>141310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>497</v>
@@ -7725,13 +7761,13 @@
         <v>292627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7835,13 @@
         <v>81858</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
         <v>229</v>
@@ -7814,13 +7850,13 @@
         <v>118687</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
         <v>352</v>
@@ -7829,13 +7865,13 @@
         <v>200544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7886,13 @@
         <v>195365</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -7865,13 +7901,13 @@
         <v>156935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -7880,13 +7916,13 @@
         <v>352301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,7 +7978,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7954,13 +7990,13 @@
         <v>168707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
         <v>406</v>
@@ -7969,13 +8005,13 @@
         <v>396729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>565</v>
@@ -7984,13 +8020,13 @@
         <v>565436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8041,13 @@
         <v>459047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="H23" s="7">
         <v>554</v>
@@ -8020,13 +8056,13 @@
         <v>407474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>399</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
@@ -8035,13 +8071,13 @@
         <v>866521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8133,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8145,13 @@
         <v>110740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="H25" s="7">
         <v>363</v>
@@ -8124,13 +8160,13 @@
         <v>266660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>56</v>
+        <v>610</v>
       </c>
       <c r="M25" s="7">
         <v>483</v>
@@ -8139,13 +8175,13 @@
         <v>377400</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8196,13 @@
         <v>748688</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>697</v>
@@ -8175,13 +8211,13 @@
         <v>598371</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>229</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>64</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>1339</v>
@@ -8190,13 +8226,13 @@
         <v>1347059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8300,13 @@
         <v>800691</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>611</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
         <v>2312</v>
@@ -8279,13 +8315,13 @@
         <v>1558171</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
         <v>3196</v>
@@ -8294,13 +8330,13 @@
         <v>2358862</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8351,13 @@
         <v>2584537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>3049</v>
@@ -8330,13 +8366,13 @@
         <v>2245671</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>633</v>
       </c>
       <c r="M29" s="7">
         <v>5541</v>
@@ -8345,13 +8381,13 @@
         <v>4830208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8443,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{884A5FFE-A47B-4192-80DF-9912E82B24AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44DFC27-6D38-4D6C-92C0-D21C4DACFBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39E267CD-4F76-44A7-9ACB-FA5D0175D9DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F779CE8-06E7-49F9-9AB3-7049B45C3C11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,25 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>9,78%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +104,25 @@
     <t>86,26%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +134,55 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +191,55 @@
     <t>10,81%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +248,55 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,1182 +305,1176 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>25,25%</t>
   </si>
   <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>75,93%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
@@ -1613,9 +1601,6 @@
     <t>36,16%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
     <t>39,76%</t>
   </si>
   <si>
@@ -1643,15 +1628,9 @@
     <t>60,24%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
     <t>37,4%</t>
   </si>
   <si>
@@ -1677,9 +1656,6 @@
   </si>
   <si>
     <t>62,6%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
   </si>
   <si>
     <t>57,91%</t>
@@ -2361,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230024C4-6522-44D0-A425-713DEC5EF675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96657DC4-9C3A-4DB9-B6A9-458B8BE73E4C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2500,13 +2476,13 @@
         <v>47684</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -2515,19 +2491,19 @@
         <v>85207</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>234</v>
@@ -2536,13 +2512,13 @@
         <v>235488</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -2551,13 +2527,13 @@
         <v>213154</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>431</v>
@@ -2566,13 +2542,13 @@
         <v>448641</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2563,13 @@
         <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -2602,13 +2578,13 @@
         <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -2617,18 +2593,18 @@
         <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2640,13 +2616,13 @@
         <v>46980</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -2655,13 +2631,13 @@
         <v>112216</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -2670,19 +2646,19 @@
         <v>159196</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>420</v>
@@ -2691,13 +2667,13 @@
         <v>446095</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>387</v>
@@ -2706,13 +2682,13 @@
         <v>391733</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>807</v>
@@ -2721,13 +2697,13 @@
         <v>837828</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2718,13 @@
         <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>499</v>
@@ -2757,13 +2733,13 @@
         <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>964</v>
@@ -2772,18 +2748,18 @@
         <v>997024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2795,13 +2771,13 @@
         <v>34480</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -2810,13 +2786,13 @@
         <v>96246</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -2825,19 +2801,19 @@
         <v>130725</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>275</v>
@@ -2846,13 +2822,13 @@
         <v>284366</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>242</v>
@@ -2861,13 +2837,13 @@
         <v>239166</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>517</v>
@@ -2876,13 +2852,13 @@
         <v>523533</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2873,13 @@
         <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>335</v>
@@ -2912,13 +2888,13 @@
         <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>645</v>
@@ -2927,18 +2903,18 @@
         <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2950,13 +2926,13 @@
         <v>53478</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -2965,13 +2941,13 @@
         <v>83278</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -2980,19 +2956,19 @@
         <v>136756</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>306</v>
@@ -3001,13 +2977,13 @@
         <v>305193</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>299</v>
@@ -3016,13 +2992,13 @@
         <v>288178</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>605</v>
@@ -3031,13 +3007,13 @@
         <v>593371</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3028,13 @@
         <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>384</v>
@@ -3067,13 +3043,13 @@
         <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>746</v>
@@ -3082,18 +3058,18 @@
         <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3105,13 +3081,13 @@
         <v>28841</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3120,13 +3096,13 @@
         <v>52440</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -3135,19 +3111,19 @@
         <v>81281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>177</v>
@@ -3156,13 +3132,13 @@
         <v>174467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -3171,13 +3147,13 @@
         <v>155228</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>325</v>
@@ -3186,13 +3162,13 @@
         <v>329695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3183,13 @@
         <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -3222,13 +3198,13 @@
         <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>404</v>
@@ -3237,18 +3213,18 @@
         <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3260,13 +3236,13 @@
         <v>36405</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3275,13 +3251,13 @@
         <v>68564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -3290,19 +3266,19 @@
         <v>104970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>228</v>
@@ -3311,13 +3287,13 @@
         <v>234406</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3326,13 +3302,13 @@
         <v>209580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>432</v>
@@ -3341,13 +3317,13 @@
         <v>443985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3338,13 @@
         <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -3377,13 +3353,13 @@
         <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -3392,18 +3368,18 @@
         <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3415,13 +3391,13 @@
         <v>86649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -3430,13 +3406,13 @@
         <v>133292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -3445,19 +3421,19 @@
         <v>219941</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>510</v>
@@ -3466,13 +3442,13 @@
         <v>528378</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>492</v>
@@ -3481,13 +3457,13 @@
         <v>504927</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1002</v>
@@ -3496,13 +3472,13 @@
         <v>1033305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3493,13 @@
         <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>621</v>
@@ -3532,13 +3508,13 @@
         <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1219</v>
@@ -3547,18 +3523,18 @@
         <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3570,13 +3546,13 @@
         <v>131438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -3585,13 +3561,13 @@
         <v>212897</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -3600,19 +3576,19 @@
         <v>344335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>599</v>
@@ -3621,13 +3597,13 @@
         <v>611339</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>545</v>
@@ -3636,13 +3612,13 @@
         <v>570614</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -3651,13 +3627,13 @@
         <v>1181953</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3648,13 @@
         <v>742777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>745</v>
@@ -3687,13 +3663,13 @@
         <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1480</v>
@@ -3702,13 +3678,13 @@
         <v>1526288</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3701,13 @@
         <v>455794</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>783</v>
@@ -3740,13 +3716,13 @@
         <v>806617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>1247</v>
@@ -3755,34 +3731,34 @@
         <v>1262411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2749</v>
       </c>
       <c r="D29" s="7">
-        <v>2819732</v>
+        <v>2819731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2514</v>
@@ -3791,13 +3767,13 @@
         <v>2572581</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5263</v>
@@ -3806,13 +3782,13 @@
         <v>5392312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,16 +3800,16 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3297</v>
@@ -3842,13 +3818,13 @@
         <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6510</v>
@@ -3857,18 +3833,18 @@
         <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5226F-91C2-4898-958B-138005A017AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561DF7D4-EFA0-49D5-B5A4-359D11F654B7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4014,84 +3990,84 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,44 +4080,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4153,13 +4129,13 @@
         <v>106042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -4168,13 +4144,13 @@
         <v>181443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>262</v>
@@ -4183,19 +4159,19 @@
         <v>287485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>373</v>
@@ -4204,13 +4180,13 @@
         <v>399485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4219,13 +4195,13 @@
         <v>341288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -4234,13 +4210,13 @@
         <v>740773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4231,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>479</v>
@@ -4270,13 +4246,13 @@
         <v>522731</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>951</v>
@@ -4285,18 +4261,18 @@
         <v>1028258</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4308,13 +4284,13 @@
         <v>71885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4323,13 +4299,13 @@
         <v>110030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4338,19 +4314,19 @@
         <v>181916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>248</v>
@@ -4359,13 +4335,13 @@
         <v>251231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>214</v>
@@ -4374,13 +4350,13 @@
         <v>230990</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -4389,13 +4365,13 @@
         <v>482220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4386,13 @@
         <v>323116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -4425,13 +4401,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>635</v>
@@ -4440,18 +4416,18 @@
         <v>664136</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4463,13 +4439,13 @@
         <v>122570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
@@ -4478,13 +4454,13 @@
         <v>230839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -4493,19 +4469,19 @@
         <v>353409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>513</v>
@@ -4514,13 +4490,13 @@
         <v>543607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
@@ -4529,13 +4505,13 @@
         <v>441117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>922</v>
@@ -4544,13 +4520,13 @@
         <v>984724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4541,13 @@
         <v>666177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>623</v>
@@ -4580,13 +4556,13 @@
         <v>671956</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1246</v>
@@ -4595,18 +4571,18 @@
         <v>1338133</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4618,13 +4594,13 @@
         <v>35900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -4633,13 +4609,13 @@
         <v>97495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4648,19 +4624,19 @@
         <v>133395</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>163</v>
@@ -4669,13 +4645,13 @@
         <v>176718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4684,13 +4660,13 @@
         <v>122096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -4699,13 +4675,13 @@
         <v>298814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4696,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -4735,13 +4711,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -4750,18 +4726,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4773,13 +4749,13 @@
         <v>53002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4788,13 +4764,13 @@
         <v>105811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4803,19 +4779,19 @@
         <v>158813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>209</v>
@@ -4824,13 +4800,13 @@
         <v>220979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -4839,13 +4815,13 @@
         <v>173329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -4854,13 +4830,13 @@
         <v>394308</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4851,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -4890,13 +4866,13 @@
         <v>279140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -4905,18 +4881,18 @@
         <v>553121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4928,13 +4904,13 @@
         <v>111374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -4943,13 +4919,13 @@
         <v>224307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4958,19 +4934,19 @@
         <v>335681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>514</v>
@@ -4979,13 +4955,13 @@
         <v>551414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -4994,13 +4970,13 @@
         <v>469546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -5009,13 +4985,13 @@
         <v>1020960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5006,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -5045,13 +5021,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -5060,18 +5036,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5083,13 +5059,13 @@
         <v>110609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -5098,13 +5074,13 @@
         <v>239046</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>319</v>
@@ -5113,19 +5089,19 @@
         <v>349654</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>615</v>
@@ -5134,13 +5110,13 @@
         <v>666363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>537</v>
@@ -5149,13 +5125,13 @@
         <v>583657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>1152</v>
@@ -5164,13 +5140,13 @@
         <v>1250021</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5161,13 @@
         <v>776972</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -5200,13 +5176,13 @@
         <v>822703</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1471</v>
@@ -5215,13 +5191,13 @@
         <v>1599675</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5214,13 @@
         <v>611383</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1099</v>
@@ -5253,34 +5229,34 @@
         <v>1188971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1667</v>
       </c>
       <c r="N28" s="7">
-        <v>1800354</v>
+        <v>1800353</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2635</v>
@@ -5289,13 +5265,13 @@
         <v>2809796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>2192</v>
@@ -5304,13 +5280,13 @@
         <v>2362023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>4827</v>
@@ -5319,13 +5295,13 @@
         <v>5171820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5316,13 @@
         <v>3421179</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3291</v>
@@ -5355,33 +5331,33 @@
         <v>3550994</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6494</v>
       </c>
       <c r="N30" s="7">
-        <v>6972174</v>
+        <v>6972173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5405,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EE57F0-DB28-4A80-A53D-F1D01C088C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEF5ABE-C04B-4C8A-B7C1-02FE669F1DCA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5505,13 @@
         <v>63251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -5544,13 +5520,13 @@
         <v>96556</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>151</v>
@@ -5559,19 +5535,19 @@
         <v>159808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>209</v>
@@ -5580,13 +5556,13 @@
         <v>230510</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5595,13 +5571,13 @@
         <v>192147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>392</v>
@@ -5610,13 +5586,13 @@
         <v>422656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5607,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -5646,13 +5622,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -5661,18 +5637,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5684,13 +5660,13 @@
         <v>85931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -5699,13 +5675,13 @@
         <v>156607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5714,19 +5690,19 @@
         <v>242538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>393</v>
@@ -5735,13 +5711,13 @@
         <v>416644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -5750,13 +5726,13 @@
         <v>366477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -5765,13 +5741,13 @@
         <v>783121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5762,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -5801,13 +5777,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -5816,18 +5792,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5839,13 +5815,13 @@
         <v>62523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5854,13 +5830,13 @@
         <v>111047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -5869,19 +5845,19 @@
         <v>173570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>267</v>
@@ -5890,13 +5866,13 @@
         <v>256042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5905,13 +5881,13 @@
         <v>225262</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>494</v>
@@ -5920,13 +5896,13 @@
         <v>481304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5917,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -5956,13 +5932,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -5971,18 +5947,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5994,13 +5970,13 @@
         <v>104830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -6009,13 +5985,13 @@
         <v>177603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -6024,19 +6000,19 @@
         <v>282434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>255</v>
@@ -6045,13 +6021,13 @@
         <v>265134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -6060,13 +6036,13 @@
         <v>209680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -6075,13 +6051,13 @@
         <v>474813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6072,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -6111,13 +6087,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -6126,18 +6102,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6149,13 +6125,13 @@
         <v>29331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -6164,13 +6140,13 @@
         <v>64912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -6179,19 +6155,19 @@
         <v>94243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>183</v>
@@ -6200,13 +6176,13 @@
         <v>181890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -6215,13 +6191,13 @@
         <v>153675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -6230,13 +6206,13 @@
         <v>335565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6227,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -6266,13 +6242,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -6281,18 +6257,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6304,13 +6280,13 @@
         <v>39734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -6319,13 +6295,13 @@
         <v>69383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -6334,19 +6310,19 @@
         <v>109117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>221</v>
@@ -6355,13 +6331,13 @@
         <v>223389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -6370,13 +6346,13 @@
         <v>203732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>421</v>
@@ -6385,13 +6361,13 @@
         <v>427121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6382,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -6421,13 +6397,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -6436,18 +6412,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6459,13 +6435,13 @@
         <v>98385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -6474,13 +6450,13 @@
         <v>152057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>227</v>
@@ -6489,19 +6465,19 @@
         <v>250442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>491</v>
@@ -6510,13 +6486,13 @@
         <v>558173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>312</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>508</v>
@@ -6525,13 +6501,13 @@
         <v>539237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>999</v>
@@ -6540,13 +6516,13 @@
         <v>1097410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6537,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -6576,13 +6552,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -6591,18 +6567,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6614,13 +6590,13 @@
         <v>156460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -6629,13 +6605,13 @@
         <v>274190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>394</v>
@@ -6644,19 +6620,19 @@
         <v>430650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>600</v>
@@ -6665,13 +6641,13 @@
         <v>622123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>511</v>
@@ -6680,13 +6656,13 @@
         <v>551977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -6695,13 +6671,13 @@
         <v>1174100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6692,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -6731,13 +6707,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -6746,13 +6722,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6745,13 @@
         <v>640445</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>1013</v>
@@ -6784,13 +6760,13 @@
         <v>1102356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>1625</v>
@@ -6799,19 +6775,19 @@
         <v>1742802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2619</v>
@@ -6820,13 +6796,13 @@
         <v>2753905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>2325</v>
@@ -6835,13 +6811,13 @@
         <v>2442186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>4944</v>
@@ -6850,13 +6826,13 @@
         <v>5196090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6847,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -6886,13 +6862,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -6901,18 +6877,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6936,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2916A73D-7177-47FB-8345-559467923ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC169FA-5A15-4995-A3A6-FD263F35E1F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7060,13 +7036,13 @@
         <v>77279</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>240</v>
@@ -7075,13 +7051,13 @@
         <v>120644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>343</v>
@@ -7090,19 +7066,19 @@
         <v>197922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>228</v>
@@ -7111,13 +7087,13 @@
         <v>183019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>298</v>
@@ -7126,13 +7102,13 @@
         <v>150759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>526</v>
@@ -7141,13 +7117,13 @@
         <v>333778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7138,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -7177,13 +7153,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -7192,18 +7168,18 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -7215,13 +7191,13 @@
         <v>123811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
@@ -7230,13 +7206,13 @@
         <v>226557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>412</v>
@@ -7245,19 +7221,19 @@
         <v>350367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>280</v>
@@ -7266,13 +7242,13 @@
         <v>395486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -7281,13 +7257,13 @@
         <v>327284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -7296,13 +7272,13 @@
         <v>722771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7293,13 @@
         <v>519297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>716</v>
@@ -7332,13 +7308,13 @@
         <v>553841</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1098</v>
@@ -7347,18 +7323,18 @@
         <v>1073138</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7370,13 +7346,13 @@
         <v>93537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -7385,13 +7361,13 @@
         <v>157931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
@@ -7400,19 +7376,19 @@
         <v>251468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>243</v>
@@ -7421,13 +7397,13 @@
         <v>228703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -7436,13 +7412,13 @@
         <v>215353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -7451,13 +7427,13 @@
         <v>444056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7448,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -7487,13 +7463,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -7502,18 +7478,18 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7525,13 +7501,13 @@
         <v>99329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -7540,13 +7516,13 @@
         <v>180372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -7555,19 +7531,19 @@
         <v>279701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>200</v>
@@ -7576,13 +7552,13 @@
         <v>222911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -7591,13 +7567,13 @@
         <v>248184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>497</v>
@@ -7606,13 +7582,13 @@
         <v>471095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7603,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -7642,13 +7618,13 @@
         <v>428556</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
@@ -7657,18 +7633,18 @@
         <v>750796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7680,13 +7656,13 @@
         <v>45431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
@@ -7695,13 +7671,13 @@
         <v>90593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -7710,19 +7686,19 @@
         <v>136024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>211</v>
@@ -7731,13 +7707,13 @@
         <v>151317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -7746,13 +7722,13 @@
         <v>141310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>497</v>
@@ -7761,13 +7737,13 @@
         <v>292627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,13 +7758,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>492</v>
@@ -7797,13 +7773,13 @@
         <v>231903</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
@@ -7812,18 +7788,18 @@
         <v>428651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7835,13 +7811,13 @@
         <v>81858</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>229</v>
@@ -7850,13 +7826,13 @@
         <v>118687</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>352</v>
@@ -7865,19 +7841,19 @@
         <v>200544</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>248</v>
@@ -7886,13 +7862,13 @@
         <v>195365</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -7901,13 +7877,13 @@
         <v>156935</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -7916,13 +7892,13 @@
         <v>352301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +7913,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
@@ -7952,13 +7928,13 @@
         <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -7967,18 +7943,18 @@
         <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7990,13 +7966,13 @@
         <v>168707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>406</v>
@@ -8005,13 +7981,13 @@
         <v>396729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>565</v>
@@ -8020,19 +7996,19 @@
         <v>565436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>440</v>
@@ -8041,13 +8017,13 @@
         <v>459047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H23" s="7">
         <v>554</v>
@@ -8056,13 +8032,13 @@
         <v>407474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
@@ -8071,13 +8047,13 @@
         <v>866521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,13 +8068,13 @@
         <v>627754</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>960</v>
@@ -8107,13 +8083,13 @@
         <v>804203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1559</v>
@@ -8122,18 +8098,18 @@
         <v>1431957</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8145,13 +8121,13 @@
         <v>110740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>363</v>
@@ -8160,13 +8136,13 @@
         <v>266660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>483</v>
@@ -8175,19 +8151,19 @@
         <v>377400</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>642</v>
@@ -8196,13 +8172,13 @@
         <v>748688</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>697</v>
@@ -8211,13 +8187,13 @@
         <v>598371</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>1339</v>
@@ -8226,13 +8202,13 @@
         <v>1347059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,13 +8223,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>1060</v>
@@ -8262,13 +8238,13 @@
         <v>865031</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1822</v>
@@ -8277,13 +8253,13 @@
         <v>1724459</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8276,13 @@
         <v>800691</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>2312</v>
@@ -8315,13 +8291,13 @@
         <v>1558171</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>3196</v>
@@ -8330,19 +8306,19 @@
         <v>2358862</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2492</v>
@@ -8351,13 +8327,13 @@
         <v>2584537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H29" s="7">
         <v>3049</v>
@@ -8366,13 +8342,13 @@
         <v>2245671</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>5541</v>
@@ -8381,13 +8357,13 @@
         <v>4830208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,13 +8378,13 @@
         <v>3385228</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>5361</v>
@@ -8417,13 +8393,13 @@
         <v>3803842</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>8737</v>
@@ -8432,18 +8408,18 @@
         <v>7189070</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D44DFC27-6D38-4D6C-92C0-D21C4DACFBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3EC45A2-A579-4CD5-8D84-0C22B0ABD8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F779CE8-06E7-49F9-9AB3-7049B45C3C11}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0213EF7A-A521-413C-A89C-CC9DEB7F93ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,31 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>9,78%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +107,28 @@
     <t>86,26%</t>
   </si>
   <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,55 +140,55 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,1738 +200,1720 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>14,51%</t>
+    <t>14,82%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>46,86%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>53,14%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96657DC4-9C3A-4DB9-B6A9-458B8BE73E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E29F7D7-4F0E-41FD-9F7E-D1452BEB0D1B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2476,13 +2464,13 @@
         <v>47684</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -2491,19 +2479,19 @@
         <v>85207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>234</v>
@@ -2512,13 +2500,13 @@
         <v>235488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -2527,13 +2515,13 @@
         <v>213154</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>431</v>
@@ -2542,13 +2530,13 @@
         <v>448641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2551,13 @@
         <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -2578,13 +2566,13 @@
         <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -2593,18 +2581,18 @@
         <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2616,13 +2604,13 @@
         <v>46980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -2631,13 +2619,13 @@
         <v>112216</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -2646,19 +2634,19 @@
         <v>159196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>420</v>
@@ -2667,13 +2655,13 @@
         <v>446095</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>387</v>
@@ -2682,13 +2670,13 @@
         <v>391733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>807</v>
@@ -2697,13 +2685,13 @@
         <v>837828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2706,13 @@
         <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>499</v>
@@ -2733,13 +2721,13 @@
         <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>964</v>
@@ -2748,18 +2736,18 @@
         <v>997024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2771,13 +2759,13 @@
         <v>34480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -2786,13 +2774,13 @@
         <v>96246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -2801,19 +2789,19 @@
         <v>130725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>275</v>
@@ -2822,13 +2810,13 @@
         <v>284366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>242</v>
@@ -2837,13 +2825,13 @@
         <v>239166</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>517</v>
@@ -2852,13 +2840,13 @@
         <v>523533</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2861,13 @@
         <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>335</v>
@@ -2888,13 +2876,13 @@
         <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>645</v>
@@ -2903,18 +2891,18 @@
         <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2926,13 +2914,13 @@
         <v>53478</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -2941,13 +2929,13 @@
         <v>83278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -2956,19 +2944,19 @@
         <v>136756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>306</v>
@@ -2977,13 +2965,13 @@
         <v>305193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>299</v>
@@ -2992,13 +2980,13 @@
         <v>288178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>605</v>
@@ -3007,13 +2995,13 @@
         <v>593371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3016,13 @@
         <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>384</v>
@@ -3043,13 +3031,13 @@
         <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>746</v>
@@ -3058,18 +3046,18 @@
         <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3081,13 +3069,13 @@
         <v>28841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3096,13 +3084,13 @@
         <v>52440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -3111,19 +3099,19 @@
         <v>81281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>177</v>
@@ -3132,13 +3120,13 @@
         <v>174467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -3147,13 +3135,13 @@
         <v>155228</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>325</v>
@@ -3162,13 +3150,13 @@
         <v>329695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3171,13 @@
         <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -3198,13 +3186,13 @@
         <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>404</v>
@@ -3213,18 +3201,18 @@
         <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3236,13 +3224,13 @@
         <v>36405</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3251,13 +3239,13 @@
         <v>68564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -3266,19 +3254,19 @@
         <v>104970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>228</v>
@@ -3287,13 +3275,13 @@
         <v>234406</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3302,13 +3290,13 @@
         <v>209580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>432</v>
@@ -3317,13 +3305,13 @@
         <v>443985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3326,13 @@
         <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -3353,13 +3341,13 @@
         <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -3368,18 +3356,18 @@
         <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3391,13 +3379,13 @@
         <v>86649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -3406,13 +3394,13 @@
         <v>133292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -3421,19 +3409,19 @@
         <v>219941</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>510</v>
@@ -3442,13 +3430,13 @@
         <v>528378</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>492</v>
@@ -3457,13 +3445,13 @@
         <v>504927</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1002</v>
@@ -3472,13 +3460,13 @@
         <v>1033305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3481,13 @@
         <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>621</v>
@@ -3508,13 +3496,13 @@
         <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1219</v>
@@ -3523,18 +3511,18 @@
         <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3546,13 +3534,13 @@
         <v>131438</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -3561,13 +3549,13 @@
         <v>212897</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -3576,19 +3564,19 @@
         <v>344335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>599</v>
@@ -3597,13 +3585,13 @@
         <v>611339</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>545</v>
@@ -3612,13 +3600,13 @@
         <v>570614</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -3627,13 +3615,13 @@
         <v>1181953</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3636,13 @@
         <v>742777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>745</v>
@@ -3663,13 +3651,13 @@
         <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1480</v>
@@ -3678,13 +3666,13 @@
         <v>1526288</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3689,13 @@
         <v>455794</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>783</v>
@@ -3716,13 +3704,13 @@
         <v>806617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>1247</v>
@@ -3743,7 +3731,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2749</v>
@@ -3770,25 +3758,25 @@
         <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="M29" s="7">
         <v>5263</v>
       </c>
       <c r="N29" s="7">
-        <v>5392312</v>
+        <v>5392311</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3791,13 @@
         <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3297</v>
@@ -3818,33 +3806,33 @@
         <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561DF7D4-EFA0-49D5-B5A4-359D11F654B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263C4F2B-F786-45F6-8489-E065C4DCE0CD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,84 +3978,84 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,44 +4068,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4129,13 +4117,13 @@
         <v>106042</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -4144,13 +4132,13 @@
         <v>181443</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>262</v>
@@ -4159,19 +4147,19 @@
         <v>287485</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>373</v>
@@ -4180,13 +4168,13 @@
         <v>399485</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4195,13 +4183,13 @@
         <v>341288</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -4210,13 +4198,13 @@
         <v>740773</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4219,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>479</v>
@@ -4246,13 +4234,13 @@
         <v>522731</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>951</v>
@@ -4261,18 +4249,18 @@
         <v>1028258</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4284,13 +4272,13 @@
         <v>71885</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4299,13 +4287,13 @@
         <v>110030</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4314,19 +4302,19 @@
         <v>181916</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>248</v>
@@ -4335,13 +4323,13 @@
         <v>251231</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>214</v>
@@ -4350,13 +4338,13 @@
         <v>230990</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -4365,13 +4353,13 @@
         <v>482220</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4374,13 @@
         <v>323116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -4401,13 +4389,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>635</v>
@@ -4416,18 +4404,18 @@
         <v>664136</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4439,13 +4427,13 @@
         <v>122570</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
@@ -4454,13 +4442,13 @@
         <v>230839</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -4469,19 +4457,19 @@
         <v>353409</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>513</v>
@@ -4490,13 +4478,13 @@
         <v>543607</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
@@ -4505,13 +4493,13 @@
         <v>441117</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>922</v>
@@ -4520,13 +4508,13 @@
         <v>984724</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4529,13 @@
         <v>666177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>623</v>
@@ -4556,13 +4544,13 @@
         <v>671956</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1246</v>
@@ -4571,18 +4559,18 @@
         <v>1338133</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4594,13 +4582,13 @@
         <v>35900</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -4609,13 +4597,13 @@
         <v>97495</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4624,19 +4612,19 @@
         <v>133395</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>163</v>
@@ -4645,13 +4633,13 @@
         <v>176718</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4660,13 +4648,13 @@
         <v>122096</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -4675,13 +4663,13 @@
         <v>298814</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4684,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -4711,13 +4699,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -4726,18 +4714,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4749,13 +4737,13 @@
         <v>53002</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4764,13 +4752,13 @@
         <v>105811</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4779,19 +4767,19 @@
         <v>158813</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>209</v>
@@ -4800,13 +4788,13 @@
         <v>220979</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -4815,13 +4803,13 @@
         <v>173329</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -4830,13 +4818,13 @@
         <v>394308</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4839,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -4866,13 +4854,13 @@
         <v>279140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -4881,18 +4869,18 @@
         <v>553121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4904,13 +4892,13 @@
         <v>111374</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -4919,13 +4907,13 @@
         <v>224307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4934,19 +4922,19 @@
         <v>335681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>514</v>
@@ -4955,13 +4943,13 @@
         <v>551414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -4970,13 +4958,13 @@
         <v>469546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -4985,13 +4973,13 @@
         <v>1020960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4994,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -5021,13 +5009,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -5036,18 +5024,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5059,13 +5047,13 @@
         <v>110609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -5074,13 +5062,13 @@
         <v>239046</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>319</v>
@@ -5089,19 +5077,19 @@
         <v>349654</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>615</v>
@@ -5110,13 +5098,13 @@
         <v>666363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>537</v>
@@ -5125,13 +5113,13 @@
         <v>583657</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>1152</v>
@@ -5140,13 +5128,13 @@
         <v>1250021</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5149,13 @@
         <v>776972</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -5176,13 +5164,13 @@
         <v>822703</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1471</v>
@@ -5191,13 +5179,13 @@
         <v>1599675</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5202,13 @@
         <v>611383</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1099</v>
@@ -5229,34 +5217,34 @@
         <v>1188971</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1667</v>
       </c>
       <c r="N28" s="7">
-        <v>1800353</v>
+        <v>1800354</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2635</v>
@@ -5265,13 +5253,13 @@
         <v>2809796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>2192</v>
@@ -5280,13 +5268,13 @@
         <v>2362023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>4827</v>
@@ -5295,13 +5283,13 @@
         <v>5171820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5304,13 @@
         <v>3421179</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3291</v>
@@ -5331,33 +5319,33 @@
         <v>3550994</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6494</v>
       </c>
       <c r="N30" s="7">
-        <v>6972173</v>
+        <v>6972174</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEF5ABE-C04B-4C8A-B7C1-02FE669F1DCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82807CCD-9E50-4F47-9E3D-53DF1FEACCED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5493,13 @@
         <v>63251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -5520,13 +5508,13 @@
         <v>96556</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>151</v>
@@ -5535,19 +5523,19 @@
         <v>159808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>209</v>
@@ -5556,13 +5544,13 @@
         <v>230510</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5571,13 +5559,13 @@
         <v>192147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>392</v>
@@ -5586,13 +5574,13 @@
         <v>422656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5595,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -5622,13 +5610,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -5637,18 +5625,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5660,13 +5648,13 @@
         <v>85931</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -5675,13 +5663,13 @@
         <v>156607</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5690,19 +5678,19 @@
         <v>242538</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>393</v>
@@ -5711,13 +5699,13 @@
         <v>416644</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -5726,13 +5714,13 @@
         <v>366477</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -5741,13 +5729,13 @@
         <v>783121</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5750,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -5777,13 +5765,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -5792,18 +5780,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5815,13 +5803,13 @@
         <v>62523</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5830,13 +5818,13 @@
         <v>111047</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -5845,19 +5833,19 @@
         <v>173570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>267</v>
@@ -5866,13 +5854,13 @@
         <v>256042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5881,13 +5869,13 @@
         <v>225262</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>494</v>
@@ -5896,13 +5884,13 @@
         <v>481304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5905,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -5932,13 +5920,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -5947,18 +5935,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5970,13 +5958,13 @@
         <v>104830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -5985,13 +5973,13 @@
         <v>177603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -6000,19 +5988,19 @@
         <v>282434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>255</v>
@@ -6021,13 +6009,13 @@
         <v>265134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -6036,13 +6024,13 @@
         <v>209680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -6051,13 +6039,13 @@
         <v>474813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6060,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -6087,13 +6075,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -6102,18 +6090,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6125,13 +6113,13 @@
         <v>29331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -6140,13 +6128,13 @@
         <v>64912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -6155,19 +6143,19 @@
         <v>94243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>183</v>
@@ -6176,13 +6164,13 @@
         <v>181890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -6191,13 +6179,13 @@
         <v>153675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -6206,13 +6194,13 @@
         <v>335565</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6215,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -6242,13 +6230,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -6257,18 +6245,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6280,13 +6268,13 @@
         <v>39734</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -6295,13 +6283,13 @@
         <v>69383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -6310,19 +6298,19 @@
         <v>109117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>221</v>
@@ -6331,13 +6319,13 @@
         <v>223389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -6346,13 +6334,13 @@
         <v>203732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>421</v>
@@ -6361,13 +6349,13 @@
         <v>427121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6370,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -6397,13 +6385,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -6412,18 +6400,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6435,13 +6423,13 @@
         <v>98385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -6450,13 +6438,13 @@
         <v>152057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>227</v>
@@ -6465,19 +6453,19 @@
         <v>250442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>72</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>491</v>
@@ -6486,13 +6474,13 @@
         <v>558173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>508</v>
@@ -6501,13 +6489,13 @@
         <v>539237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>999</v>
@@ -6516,13 +6504,13 @@
         <v>1097410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6525,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -6552,13 +6540,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -6567,18 +6555,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6590,13 +6578,13 @@
         <v>156460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -6605,13 +6593,13 @@
         <v>274190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>394</v>
@@ -6620,19 +6608,19 @@
         <v>430650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>600</v>
@@ -6641,13 +6629,13 @@
         <v>622123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>511</v>
@@ -6656,13 +6644,13 @@
         <v>551977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>1111</v>
@@ -6671,13 +6659,13 @@
         <v>1174100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6680,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -6707,13 +6695,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -6722,13 +6710,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6733,13 @@
         <v>640445</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>1013</v>
@@ -6760,13 +6748,13 @@
         <v>1102356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>1625</v>
@@ -6775,19 +6763,19 @@
         <v>1742802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2619</v>
@@ -6796,13 +6784,13 @@
         <v>2753905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>2325</v>
@@ -6811,13 +6799,13 @@
         <v>2442186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>4944</v>
@@ -6826,13 +6814,13 @@
         <v>5196090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6835,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -6862,13 +6850,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -6877,18 +6865,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC169FA-5A15-4995-A3A6-FD263F35E1F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028DEA79-BD63-4FB4-A289-2B8C52338F4D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,13 +7024,13 @@
         <v>77279</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>240</v>
@@ -7051,13 +7039,13 @@
         <v>120644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>343</v>
@@ -7066,19 +7054,19 @@
         <v>197922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>228</v>
@@ -7087,13 +7075,13 @@
         <v>183019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>298</v>
@@ -7102,13 +7090,13 @@
         <v>150759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>526</v>
@@ -7117,13 +7105,13 @@
         <v>333778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7126,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -7153,13 +7141,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -7168,18 +7156,18 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -7191,13 +7179,13 @@
         <v>123811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
@@ -7206,13 +7194,13 @@
         <v>226557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>412</v>
@@ -7221,19 +7209,19 @@
         <v>350367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>280</v>
@@ -7242,13 +7230,13 @@
         <v>395486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
@@ -7257,13 +7245,13 @@
         <v>327284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
@@ -7272,13 +7260,13 @@
         <v>722771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,13 +7281,13 @@
         <v>519297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>716</v>
@@ -7308,13 +7296,13 @@
         <v>553841</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1098</v>
@@ -7323,18 +7311,18 @@
         <v>1073138</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7346,13 +7334,13 @@
         <v>93537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -7361,13 +7349,13 @@
         <v>157931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
@@ -7376,19 +7364,19 @@
         <v>251468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>243</v>
@@ -7397,13 +7385,13 @@
         <v>228703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -7412,13 +7400,13 @@
         <v>215353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -7427,13 +7415,13 @@
         <v>444056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,13 +7436,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -7463,13 +7451,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -7478,18 +7466,18 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7501,13 +7489,13 @@
         <v>99329</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -7516,13 +7504,13 @@
         <v>180372</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -7531,19 +7519,19 @@
         <v>279701</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>200</v>
@@ -7552,13 +7540,13 @@
         <v>222911</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -7603,13 +7591,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -7618,13 +7606,13 @@
         <v>428556</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
@@ -7633,18 +7621,18 @@
         <v>750796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7674,10 +7662,10 @@
         <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -7686,19 +7674,19 @@
         <v>136024</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>211</v>
@@ -7707,13 +7695,13 @@
         <v>151317</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -7722,13 +7710,13 @@
         <v>141310</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>558</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>497</v>
@@ -7737,13 +7725,13 @@
         <v>292627</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,13 +7746,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>492</v>
@@ -7773,13 +7761,13 @@
         <v>231903</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>771</v>
@@ -7788,18 +7776,18 @@
         <v>428651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7811,13 +7799,13 @@
         <v>81858</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>229</v>
@@ -7826,13 +7814,13 @@
         <v>118687</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>352</v>
@@ -7841,19 +7829,19 @@
         <v>200544</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>248</v>
@@ -7862,13 +7850,13 @@
         <v>195365</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -7877,13 +7865,13 @@
         <v>156935</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
@@ -7892,13 +7880,13 @@
         <v>352301</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7901,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
@@ -7928,13 +7916,13 @@
         <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -7943,18 +7931,18 @@
         <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7966,13 +7954,13 @@
         <v>168707</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>406</v>
@@ -7981,13 +7969,13 @@
         <v>396729</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>565</v>
@@ -7996,19 +7984,19 @@
         <v>565436</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>440</v>
@@ -8017,13 +8005,13 @@
         <v>459047</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="H23" s="7">
         <v>554</v>
@@ -8032,10 +8020,10 @@
         <v>407474</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>593</v>
@@ -8068,13 +8056,13 @@
         <v>627754</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>960</v>
@@ -8083,13 +8071,13 @@
         <v>804203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1559</v>
@@ -8098,18 +8086,18 @@
         <v>1431957</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8136,13 +8124,13 @@
         <v>266660</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>601</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>56</v>
       </c>
       <c r="M25" s="7">
         <v>483</v>
@@ -8151,19 +8139,19 @@
         <v>377400</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>642</v>
@@ -8172,13 +8160,13 @@
         <v>748688</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>697</v>
@@ -8187,13 +8175,13 @@
         <v>598371</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>229</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>64</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M26" s="7">
         <v>1339</v>
@@ -8202,13 +8190,13 @@
         <v>1347059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8211,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1060</v>
@@ -8238,13 +8226,13 @@
         <v>865031</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1822</v>
@@ -8253,13 +8241,13 @@
         <v>1724459</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8264,13 @@
         <v>800691</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>611</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H28" s="7">
         <v>2312</v>
@@ -8291,13 +8279,13 @@
         <v>1558171</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>3196</v>
@@ -8306,19 +8294,19 @@
         <v>2358862</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2492</v>
@@ -8327,13 +8315,13 @@
         <v>2584537</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>3049</v>
@@ -8342,13 +8330,13 @@
         <v>2245671</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>366</v>
       </c>
       <c r="M29" s="7">
         <v>5541</v>
@@ -8357,13 +8345,13 @@
         <v>4830208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,13 +8366,13 @@
         <v>3385228</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5361</v>
@@ -8393,13 +8381,13 @@
         <v>3803842</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8737</v>
@@ -8408,18 +8396,18 @@
         <v>7189070</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3EC45A2-A579-4CD5-8D84-0C22B0ABD8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5B62B3-A85E-407F-9F20-8D845AFF5108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0213EF7A-A521-413C-A89C-CC9DEB7F93ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B26C8F0-C012-4D29-8FC9-24D6E373125C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="636">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>20,98%</t>
@@ -686,58 +737,58 @@
     <t>75,97%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>16,88%</t>
@@ -1460,460 +1511,442 @@
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>35,96%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E29F7D7-4F0E-41FD-9F7E-D1452BEB0D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28881E55-1DC8-4E34-BFA7-3FC459D314E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3752,7 +3785,7 @@
         <v>2514</v>
       </c>
       <c r="I29" s="7">
-        <v>2572581</v>
+        <v>2572580</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -3803,7 +3836,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263C4F2B-F786-45F6-8489-E065C4DCE0CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBB125E-5BA9-40B6-96D0-BDFF17A725B7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,43 +4007,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49490</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="I4" s="7">
+        <v>72959</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="N4" s="7">
+        <v>122449</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,43 +4058,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="D5" s="7">
+        <v>242705</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="I5" s="7">
+        <v>211023</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>421</v>
+      </c>
+      <c r="N5" s="7">
+        <v>453727</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,43 +4109,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>292195</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I6" s="7">
+        <v>283982</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N6" s="7">
+        <v>576176</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4168,13 @@
         <v>106042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -4132,13 +4183,13 @@
         <v>181443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>262</v>
@@ -4147,13 +4198,13 @@
         <v>287485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4219,13 @@
         <v>399485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4183,13 +4234,13 @@
         <v>341288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>689</v>
@@ -4198,13 +4249,13 @@
         <v>740773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4323,13 @@
         <v>71885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4287,13 +4338,13 @@
         <v>110030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4302,13 +4353,13 @@
         <v>181916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4374,13 @@
         <v>251231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>214</v>
@@ -4338,13 +4389,13 @@
         <v>230990</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -4353,13 +4404,13 @@
         <v>482220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,49 +4472,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>122570</v>
+        <v>73080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>230839</v>
+        <v>157880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="N13" s="7">
-        <v>353409</v>
+        <v>230960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,49 +4523,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="D14" s="7">
-        <v>543607</v>
+        <v>300902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>409</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>441117</v>
+        <v>230094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>922</v>
+        <v>501</v>
       </c>
       <c r="N14" s="7">
-        <v>984724</v>
+        <v>530996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,10 +4574,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>623</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>666177</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4538,10 +4589,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>623</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>671956</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4553,10 +4604,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1246</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1338133</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4582,13 +4633,13 @@
         <v>35900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -4597,13 +4648,13 @@
         <v>97495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4612,13 +4663,13 @@
         <v>133395</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4684,13 @@
         <v>176718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4648,13 +4699,13 @@
         <v>122096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -4663,13 +4714,13 @@
         <v>298814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4788,13 @@
         <v>53002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4752,13 +4803,13 @@
         <v>105811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4767,13 +4818,13 @@
         <v>158813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4839,13 @@
         <v>220979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -4803,13 +4854,13 @@
         <v>173329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>376</v>
@@ -4818,13 +4869,13 @@
         <v>394308</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4943,13 @@
         <v>111374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>207</v>
@@ -4907,13 +4958,13 @@
         <v>224307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4922,13 +4973,13 @@
         <v>335681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4994,13 @@
         <v>551414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -4958,10 +5009,10 @@
         <v>469546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>63</v>
@@ -4973,13 +5024,13 @@
         <v>1020960</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5098,13 @@
         <v>110609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -5062,13 +5113,13 @@
         <v>239046</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>319</v>
@@ -5077,13 +5128,13 @@
         <v>349654</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5149,13 @@
         <v>666363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>537</v>
@@ -5113,13 +5164,13 @@
         <v>583657</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>1152</v>
@@ -5128,10 +5179,10 @@
         <v>1250021</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>121</v>
@@ -5202,13 +5253,13 @@
         <v>611383</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>1099</v>
@@ -5217,13 +5268,13 @@
         <v>1188971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>1667</v>
@@ -5232,13 +5283,13 @@
         <v>1800354</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,28 +5304,28 @@
         <v>2809796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>2192</v>
       </c>
       <c r="I29" s="7">
-        <v>2362023</v>
+        <v>2362024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>4827</v>
@@ -5283,13 +5334,13 @@
         <v>5171820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,7 +5367,7 @@
         <v>3291</v>
       </c>
       <c r="I30" s="7">
-        <v>3550994</v>
+        <v>3550995</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5369,7 +5420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82807CCD-9E50-4F47-9E3D-53DF1FEACCED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758A0134-AAC3-4502-8E5B-7BE208DE78B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5544,13 @@
         <v>63251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -5508,13 +5559,13 @@
         <v>96556</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>151</v>
@@ -5523,13 +5574,13 @@
         <v>159808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5595,13 @@
         <v>230510</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5559,13 +5610,13 @@
         <v>192147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>392</v>
@@ -5574,13 +5625,13 @@
         <v>422656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5699,13 @@
         <v>85931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -5663,13 +5714,13 @@
         <v>156607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5678,13 +5729,13 @@
         <v>242538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5750,13 @@
         <v>416644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -5714,13 +5765,13 @@
         <v>366477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>735</v>
@@ -5729,13 +5780,13 @@
         <v>783121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5854,13 @@
         <v>62523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5818,13 +5869,13 @@
         <v>111047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -5833,13 +5884,13 @@
         <v>173570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5905,13 @@
         <v>256042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5869,13 +5920,13 @@
         <v>225262</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>494</v>
@@ -5884,13 +5935,13 @@
         <v>481304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +6009,13 @@
         <v>104830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -5973,13 +6024,13 @@
         <v>177603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -5988,13 +6039,13 @@
         <v>282434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6060,13 @@
         <v>265134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -6024,13 +6075,13 @@
         <v>209680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -6039,13 +6090,13 @@
         <v>474813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6164,13 @@
         <v>29331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -6128,13 +6179,13 @@
         <v>64912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -6143,13 +6194,13 @@
         <v>94243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6215,13 @@
         <v>181890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -6179,13 +6230,13 @@
         <v>153675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -6194,13 +6245,13 @@
         <v>335565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6319,13 @@
         <v>39734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -6283,13 +6334,13 @@
         <v>69383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -6298,13 +6349,13 @@
         <v>109117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6370,13 @@
         <v>223389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -6334,13 +6385,13 @@
         <v>203732</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>421</v>
@@ -6349,13 +6400,13 @@
         <v>427121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6474,13 @@
         <v>98385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -6438,13 +6489,13 @@
         <v>152057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>227</v>
@@ -6456,10 +6507,10 @@
         <v>72</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6525,13 @@
         <v>558173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>508</v>
@@ -6489,13 +6540,13 @@
         <v>539237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>999</v>
@@ -6507,10 +6558,10 @@
         <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6629,13 @@
         <v>156460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -6593,13 +6644,13 @@
         <v>274190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>394</v>
@@ -6608,13 +6659,13 @@
         <v>430650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6680,13 @@
         <v>622123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>511</v>
@@ -6644,10 +6695,10 @@
         <v>551977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>120</v>
@@ -6659,13 +6710,13 @@
         <v>1174100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6784,13 @@
         <v>640445</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>1013</v>
@@ -6748,13 +6799,13 @@
         <v>1102356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="M28" s="7">
         <v>1625</v>
@@ -6763,13 +6814,13 @@
         <v>1742802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6835,13 @@
         <v>2753905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="H29" s="7">
         <v>2325</v>
@@ -6799,13 +6850,13 @@
         <v>2442186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="M29" s="7">
         <v>4944</v>
@@ -6814,13 +6865,13 @@
         <v>5196090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,7 +6951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028DEA79-BD63-4FB4-A289-2B8C52338F4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8868EC-90E4-44EB-8C78-04DFF3E234EB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6968,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7021,46 +7072,46 @@
         <v>103</v>
       </c>
       <c r="D4" s="7">
-        <v>77279</v>
+        <v>90928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="H4" s="7">
         <v>240</v>
       </c>
       <c r="I4" s="7">
-        <v>120644</v>
+        <v>127327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="M4" s="7">
         <v>343</v>
       </c>
       <c r="N4" s="7">
-        <v>197922</v>
+        <v>218255</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,46 +7123,46 @@
         <v>228</v>
       </c>
       <c r="D5" s="7">
-        <v>183019</v>
+        <v>220515</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>298</v>
       </c>
       <c r="I5" s="7">
-        <v>150759</v>
+        <v>162308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>526</v>
       </c>
       <c r="N5" s="7">
-        <v>333778</v>
+        <v>382822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7174,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7138,7 +7189,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7153,7 +7204,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7176,46 +7227,46 @@
         <v>102</v>
       </c>
       <c r="D7" s="7">
-        <v>123811</v>
+        <v>119718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="H7" s="7">
         <v>310</v>
       </c>
       <c r="I7" s="7">
-        <v>226557</v>
+        <v>209328</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="M7" s="7">
         <v>412</v>
       </c>
       <c r="N7" s="7">
-        <v>350367</v>
+        <v>329046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,46 +7278,46 @@
         <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>395486</v>
+        <v>398672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="H8" s="7">
         <v>406</v>
       </c>
       <c r="I8" s="7">
-        <v>327284</v>
+        <v>304963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="M8" s="7">
         <v>686</v>
       </c>
       <c r="N8" s="7">
-        <v>722771</v>
+        <v>703634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7329,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7293,7 +7344,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7308,7 +7359,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1073138</v>
+        <v>1032680</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7331,46 +7382,46 @@
         <v>117</v>
       </c>
       <c r="D10" s="7">
-        <v>93537</v>
+        <v>90464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
       </c>
       <c r="I10" s="7">
-        <v>157931</v>
+        <v>146969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
       </c>
       <c r="N10" s="7">
-        <v>251468</v>
+        <v>237434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,46 +7433,46 @@
         <v>243</v>
       </c>
       <c r="D11" s="7">
-        <v>228703</v>
+        <v>225586</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
       </c>
       <c r="I11" s="7">
-        <v>215353</v>
+        <v>202159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
       </c>
       <c r="N11" s="7">
-        <v>444056</v>
+        <v>427744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,7 +7484,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7448,7 +7499,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7463,7 +7514,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7486,46 +7537,46 @@
         <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>99329</v>
+        <v>95148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
       </c>
       <c r="I13" s="7">
-        <v>180372</v>
+        <v>166330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
       </c>
       <c r="N13" s="7">
-        <v>279701</v>
+        <v>261478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,46 +7588,46 @@
         <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>222911</v>
+        <v>217409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
       </c>
       <c r="I14" s="7">
-        <v>248184</v>
+        <v>309388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M14" s="7">
         <v>497</v>
       </c>
       <c r="N14" s="7">
-        <v>471095</v>
+        <v>526796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7639,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7603,7 +7654,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7618,7 +7669,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7641,46 +7692,46 @@
         <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>45431</v>
+        <v>41295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
       </c>
       <c r="I16" s="7">
-        <v>90593</v>
+        <v>82113</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>558</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
       </c>
       <c r="N16" s="7">
-        <v>136024</v>
+        <v>123408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,46 +7743,46 @@
         <v>211</v>
       </c>
       <c r="D17" s="7">
-        <v>151317</v>
+        <v>137447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
       </c>
       <c r="I17" s="7">
-        <v>141310</v>
+        <v>126543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>497</v>
       </c>
       <c r="N17" s="7">
-        <v>292627</v>
+        <v>263990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>521</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7794,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7758,7 +7809,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7773,7 +7824,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7796,46 +7847,46 @@
         <v>123</v>
       </c>
       <c r="D19" s="7">
-        <v>81858</v>
+        <v>78873</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="H19" s="7">
         <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>118687</v>
+        <v>110535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="M19" s="7">
         <v>352</v>
       </c>
       <c r="N19" s="7">
-        <v>200544</v>
+        <v>189408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,46 +7898,46 @@
         <v>248</v>
       </c>
       <c r="D20" s="7">
-        <v>195365</v>
+        <v>190763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
       </c>
       <c r="I20" s="7">
-        <v>156935</v>
+        <v>146521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>479</v>
       </c>
       <c r="N20" s="7">
-        <v>352301</v>
+        <v>337284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,7 +7949,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7913,7 +7964,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7928,7 +7979,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7951,46 +8002,46 @@
         <v>159</v>
       </c>
       <c r="D22" s="7">
-        <v>168707</v>
+        <v>166105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>406</v>
       </c>
       <c r="I22" s="7">
-        <v>396729</v>
+        <v>469240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>565</v>
       </c>
       <c r="N22" s="7">
-        <v>565436</v>
+        <v>635345</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,46 +8053,46 @@
         <v>440</v>
       </c>
       <c r="D23" s="7">
-        <v>459047</v>
+        <v>458174</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>554</v>
       </c>
       <c r="I23" s="7">
-        <v>407474</v>
+        <v>380025</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>994</v>
       </c>
       <c r="N23" s="7">
-        <v>866521</v>
+        <v>838199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8104,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8068,7 +8119,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8083,7 +8134,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8106,46 +8157,46 @@
         <v>120</v>
       </c>
       <c r="D25" s="7">
-        <v>110740</v>
+        <v>94263</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="H25" s="7">
         <v>363</v>
       </c>
       <c r="I25" s="7">
-        <v>266660</v>
+        <v>222539</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>607</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>56</v>
+        <v>609</v>
       </c>
       <c r="M25" s="7">
         <v>483</v>
       </c>
       <c r="N25" s="7">
-        <v>377400</v>
+        <v>316802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,46 +8208,46 @@
         <v>642</v>
       </c>
       <c r="D26" s="7">
-        <v>748688</v>
+        <v>834457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="H26" s="7">
         <v>697</v>
       </c>
       <c r="I26" s="7">
-        <v>598371</v>
+        <v>492312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>229</v>
+        <v>615</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>64</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>1339</v>
       </c>
       <c r="N26" s="7">
-        <v>1347059</v>
+        <v>1326770</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,7 +8259,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8223,7 +8274,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8238,7 +8289,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8261,46 +8312,46 @@
         <v>884</v>
       </c>
       <c r="D28" s="7">
-        <v>800691</v>
+        <v>776794</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>342</v>
+        <v>620</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>611</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>2312</v>
       </c>
       <c r="I28" s="7">
-        <v>1558171</v>
+        <v>1534383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>623</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="M28" s="7">
         <v>3196</v>
       </c>
       <c r="N28" s="7">
-        <v>2358862</v>
+        <v>2311177</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,46 +8363,46 @@
         <v>2492</v>
       </c>
       <c r="D29" s="7">
-        <v>2584537</v>
+        <v>2683023</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>351</v>
+        <v>628</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>448</v>
       </c>
       <c r="H29" s="7">
         <v>3049</v>
       </c>
       <c r="I29" s="7">
-        <v>2245671</v>
+        <v>2124215</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>632</v>
       </c>
       <c r="M29" s="7">
         <v>5541</v>
       </c>
       <c r="N29" s="7">
-        <v>4830208</v>
+        <v>4807238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,7 +8414,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8378,7 +8429,7 @@
         <v>5361</v>
       </c>
       <c r="I30" s="7">
-        <v>3803842</v>
+        <v>3658598</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8393,7 +8444,7 @@
         <v>8737</v>
       </c>
       <c r="N30" s="7">
-        <v>7189070</v>
+        <v>7118415</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
